--- a/Documentos/General/Realsoft_AnalisisDeRiesgos_Ver1.0.xlsx
+++ b/Documentos/General/Realsoft_AnalisisDeRiesgos_Ver1.0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t xml:space="preserve">Lista de Riesgos</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Enfermedad de algún integrante del equipo</t>
   </si>
   <si>
-    <t xml:space="preserve">Media</t>
+    <t xml:space="preserve">2-Media</t>
   </si>
   <si>
     <t xml:space="preserve">Catastrófico</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Falta de suministro eléctrico</t>
   </si>
   <si>
-    <t xml:space="preserve">Baja</t>
+    <t xml:space="preserve">3-Baja</t>
   </si>
   <si>
     <t xml:space="preserve">Fallas en las computadoras</t>
@@ -137,6 +137,12 @@
   <si>
     <t xml:space="preserve">Aviso o no cumplimiento de la tarea.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Probabilidad: 1-Alto, 2-Medio, 3-Bajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impacto: 1-Catastrófico, 2-Crítico, 3-Marginal</t>
+  </si>
 </sst>
 </file>
 
@@ -145,7 +151,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -186,6 +192,14 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -239,7 +253,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -266,6 +280,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -285,10 +303,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:E21"/>
+  <dimension ref="A2:E25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -504,7 +522,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
         <v>9</v>
       </c>
@@ -517,6 +535,17 @@
       </c>
       <c r="E21" s="5" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
